--- a/DateBase/orders/Nhat 48_2025-12-20.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-20.xlsx
@@ -725,6 +725,9 @@
       <c r="G2" t="str">
         <v>05101555101030404022.5888121013821015151081010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
